--- a/ECS损耗单/DOC/prototype/prototype.xlsx
+++ b/ECS损耗单/DOC/prototype/prototype.xlsx
@@ -4416,6 +4416,22 @@
   </si>
   <si>
     <r>
+      <t>3.勾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选的明细商品可输入损耗件数（输入的件数不能大于发货数或已退货数）</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>1.生成</t>
     </r>
     <r>
@@ -4426,23 +4442,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>损耗单只能在订单状态是《已发货》和《已退货》时才显示、可用。</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.勾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选的明细商品可输入损耗件数（输入的件数不能大于发货数）</t>
+      <t>损耗单只能在订单状态是《已发货》或《已退货》时才显示、可用。</t>
     </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -7303,6 +7303,9 @@
     <xf numFmtId="0" fontId="44" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7375,6 +7378,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7384,15 +7435,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7414,45 +7456,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7462,6 +7465,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7482,21 +7497,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7525,11 +7525,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7565,43 +7565,43 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7625,15 +7625,15 @@
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7645,7 +7645,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7689,7 +7689,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7733,7 +7733,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7777,7 +7777,7 @@
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7865,7 +7865,7 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7909,7 +7909,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7978,7 +7978,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7998,7 +7998,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8109,7 +8109,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8129,7 +8129,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8164,7 +8164,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8184,7 +8184,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8219,7 +8219,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8239,7 +8239,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8312,7 +8312,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8332,7 +8332,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8519,7 +8519,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8539,7 +8539,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8650,7 +8650,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8670,7 +8670,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8824,7 +8824,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8844,7 +8844,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8879,7 +8879,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8899,7 +8899,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8986,7 +8986,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9006,7 +9006,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9117,7 +9117,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9137,7 +9137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9210,7 +9210,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9230,7 +9230,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9265,7 +9265,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9285,7 +9285,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9756,7 +9756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9776,7 +9776,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9887,7 +9887,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9907,7 +9907,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10056,7 +10056,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10076,7 +10076,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11137,7 +11137,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11157,7 +11157,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11268,7 +11268,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11288,7 +11288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11361,7 +11361,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11381,7 +11381,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11416,7 +11416,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11436,7 +11436,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11907,7 +11907,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11927,7 +11927,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12038,7 +12038,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12058,7 +12058,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12207,7 +12207,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12227,7 +12227,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13293,7 +13293,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13313,7 +13313,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13348,7 +13348,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13368,7 +13368,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13517,7 +13517,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13537,7 +13537,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13572,7 +13572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13592,7 +13592,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13627,7 +13627,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13647,7 +13647,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13682,7 +13682,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13702,7 +13702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13737,7 +13737,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13757,7 +13757,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13792,7 +13792,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13812,7 +13812,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13847,7 +13847,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13867,7 +13867,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14016,7 +14016,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14036,7 +14036,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14071,7 +14071,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14091,7 +14091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14126,7 +14126,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14146,7 +14146,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14181,7 +14181,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14201,7 +14201,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14236,7 +14236,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14256,7 +14256,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14291,7 +14291,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14311,7 +14311,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14346,7 +14346,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14366,7 +14366,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14401,7 +14401,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14421,7 +14421,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14776,7 +14776,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14796,7 +14796,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14869,7 +14869,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14889,7 +14889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15170,7 +15170,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15190,7 +15190,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15225,7 +15225,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15245,7 +15245,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15394,7 +15394,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15414,7 +15414,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15449,7 +15449,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15469,7 +15469,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15504,7 +15504,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15524,7 +15524,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15559,7 +15559,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15579,7 +15579,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15614,7 +15614,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15634,7 +15634,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15669,7 +15669,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15689,7 +15689,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15724,7 +15724,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15744,7 +15744,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15893,7 +15893,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15913,7 +15913,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15948,7 +15948,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15968,7 +15968,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16003,7 +16003,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16023,7 +16023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16058,7 +16058,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16078,7 +16078,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16113,7 +16113,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16133,7 +16133,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16168,7 +16168,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16188,7 +16188,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16590,7 +16590,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16610,7 +16610,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16683,7 +16683,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16703,7 +16703,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16984,7 +16984,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17004,7 +17004,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17039,7 +17039,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17059,7 +17059,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17208,7 +17208,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17228,7 +17228,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17263,7 +17263,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17283,7 +17283,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17318,7 +17318,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17338,7 +17338,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17373,7 +17373,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17393,7 +17393,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17428,7 +17428,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17448,7 +17448,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17483,7 +17483,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17503,7 +17503,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17538,7 +17538,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17558,7 +17558,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17707,7 +17707,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17727,7 +17727,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17762,7 +17762,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17782,7 +17782,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17817,7 +17817,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17837,7 +17837,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17872,7 +17872,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17892,7 +17892,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17927,7 +17927,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17947,7 +17947,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17982,7 +17982,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18002,7 +18002,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18404,7 +18404,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18424,7 +18424,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18497,7 +18497,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18517,7 +18517,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18798,7 +18798,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18818,7 +18818,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18853,7 +18853,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18873,7 +18873,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19022,7 +19022,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19042,7 +19042,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19077,7 +19077,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19097,7 +19097,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19132,7 +19132,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19152,7 +19152,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19187,7 +19187,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19207,7 +19207,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19242,7 +19242,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19262,7 +19262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19297,7 +19297,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19317,7 +19317,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19352,7 +19352,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19372,7 +19372,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19615,7 +19615,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19635,7 +19635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19670,7 +19670,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19690,7 +19690,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19725,7 +19725,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19745,7 +19745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19780,7 +19780,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19800,7 +19800,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19835,7 +19835,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19855,7 +19855,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19890,7 +19890,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19910,7 +19910,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20359,7 +20359,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20379,7 +20379,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20452,7 +20452,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20472,7 +20472,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21263,7 +21263,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21283,7 +21283,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21394,7 +21394,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21414,7 +21414,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21487,7 +21487,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21507,7 +21507,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21542,7 +21542,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21562,7 +21562,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21928,7 +21928,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21948,7 +21948,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21983,7 +21983,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22003,7 +22003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22038,7 +22038,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22058,7 +22058,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22230,7 +22230,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22250,7 +22250,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22379,7 +22379,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22399,7 +22399,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22434,7 +22434,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22454,7 +22454,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22489,7 +22489,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22509,7 +22509,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22544,7 +22544,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22564,7 +22564,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22599,7 +22599,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22619,7 +22619,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22654,7 +22654,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22674,7 +22674,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23295,10 +23295,10 @@
       <c r="N6" s="170"/>
       <c r="O6" s="167"/>
       <c r="P6" s="199"/>
-      <c r="Q6" s="489" t="s">
+      <c r="Q6" s="490" t="s">
         <v>225</v>
       </c>
-      <c r="R6" s="490"/>
+      <c r="R6" s="491"/>
       <c r="S6" s="201"/>
       <c r="T6" s="170"/>
       <c r="U6" s="181"/>
@@ -24002,22 +24002,22 @@
       <c r="U20" s="181"/>
     </row>
     <row r="21" spans="1:180" ht="14.25" customHeight="1">
-      <c r="B21" s="491" t="s">
+      <c r="B21" s="492" t="s">
         <v>200</v>
       </c>
       <c r="C21" s="169"/>
-      <c r="D21" s="494" t="s">
+      <c r="D21" s="495" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="494" t="s">
+      <c r="E21" s="495" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="494" t="s">
+      <c r="F21" s="495" t="s">
         <v>213</v>
       </c>
       <c r="G21" s="169"/>
       <c r="H21" s="169"/>
-      <c r="I21" s="494" t="s">
+      <c r="I21" s="495" t="s">
         <v>214</v>
       </c>
       <c r="J21" s="335" t="s">
@@ -24038,14 +24038,14 @@
       <c r="U21" s="181"/>
     </row>
     <row r="22" spans="1:180" ht="14.25" customHeight="1">
-      <c r="B22" s="492"/>
+      <c r="B22" s="493"/>
       <c r="C22" s="169"/>
-      <c r="D22" s="495"/>
-      <c r="E22" s="495"/>
-      <c r="F22" s="495"/>
+      <c r="D22" s="496"/>
+      <c r="E22" s="496"/>
+      <c r="F22" s="496"/>
       <c r="G22" s="169"/>
       <c r="H22" s="169"/>
-      <c r="I22" s="495"/>
+      <c r="I22" s="496"/>
       <c r="J22" s="335" t="s">
         <v>202</v>
       </c>
@@ -24064,14 +24064,14 @@
       <c r="U22" s="181"/>
     </row>
     <row r="23" spans="1:180" ht="14.25" customHeight="1">
-      <c r="B23" s="493"/>
+      <c r="B23" s="494"/>
       <c r="C23" s="339"/>
-      <c r="D23" s="496"/>
-      <c r="E23" s="496"/>
-      <c r="F23" s="496"/>
+      <c r="D23" s="497"/>
+      <c r="E23" s="497"/>
+      <c r="F23" s="497"/>
       <c r="G23" s="339"/>
       <c r="H23" s="339"/>
-      <c r="I23" s="496"/>
+      <c r="I23" s="497"/>
       <c r="J23" s="338" t="s">
         <v>202</v>
       </c>
@@ -24511,10 +24511,10 @@
         <v>298</v>
       </c>
       <c r="W6" s="348"/>
-      <c r="X6" s="497"/>
-      <c r="Y6" s="497"/>
-      <c r="Z6" s="497"/>
-      <c r="AA6" s="498"/>
+      <c r="X6" s="498"/>
+      <c r="Y6" s="498"/>
+      <c r="Z6" s="498"/>
+      <c r="AA6" s="499"/>
     </row>
     <row r="7" spans="1:180" ht="14.25">
       <c r="B7" s="167"/>
@@ -25711,14 +25711,14 @@
     </row>
     <row r="4" spans="1:175" s="1" customFormat="1" ht="14.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="506" t="s">
+      <c r="C4" s="507" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="506"/>
-      <c r="K4" s="506" t="s">
+      <c r="D4" s="507"/>
+      <c r="K4" s="507" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="506"/>
+      <c r="L4" s="507"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:175" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -25804,8 +25804,8 @@
       <c r="C8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="507"/>
-      <c r="E8" s="508"/>
+      <c r="D8" s="508"/>
+      <c r="E8" s="509"/>
       <c r="F8" s="6"/>
       <c r="G8" s="33" t="s">
         <v>58</v>
@@ -25830,10 +25830,10 @@
     <row r="9" spans="1:175" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="38"/>
-      <c r="D9" s="509" t="s">
+      <c r="D9" s="510" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="510"/>
+      <c r="E9" s="511"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -25848,10 +25848,10 @@
     <row r="10" spans="1:175" s="1" customFormat="1">
       <c r="B10" s="4"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="509" t="s">
+      <c r="D10" s="510" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="510"/>
+      <c r="E10" s="511"/>
       <c r="F10" s="6"/>
       <c r="G10" s="33" t="s">
         <v>57</v>
@@ -25868,10 +25868,10 @@
     <row r="11" spans="1:175" s="1" customFormat="1">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="511" t="s">
+      <c r="D11" s="512" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="512"/>
+      <c r="E11" s="513"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -26430,12 +26430,12 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="10242" r:id="rId4" name="TextBox1"/>
-    <control shapeId="10244" r:id="rId5" name="TextBox2"/>
-    <control shapeId="10245" r:id="rId6" name="TextBox3"/>
-    <control shapeId="10246" r:id="rId7" name="TextBox4"/>
-    <control shapeId="10247" r:id="rId8" name="TextBox5"/>
-    <control shapeId="10252" r:id="rId9" name="TextBox6"/>
+    <control shapeId="10252" r:id="rId4" name="TextBox6"/>
+    <control shapeId="10247" r:id="rId5" name="TextBox5"/>
+    <control shapeId="10246" r:id="rId6" name="TextBox4"/>
+    <control shapeId="10245" r:id="rId7" name="TextBox3"/>
+    <control shapeId="10244" r:id="rId8" name="TextBox2"/>
+    <control shapeId="10242" r:id="rId9" name="TextBox1"/>
   </controls>
 </worksheet>
 </file>
@@ -26738,10 +26738,10 @@
       <c r="K7" s="113"/>
       <c r="M7" s="114"/>
       <c r="N7" s="115"/>
-      <c r="P7" s="527" t="s">
+      <c r="P7" s="525" t="s">
         <v>167</v>
       </c>
-      <c r="Q7" s="528"/>
+      <c r="Q7" s="526"/>
       <c r="S7" s="94"/>
     </row>
     <row r="8" spans="1:177">
@@ -26758,10 +26758,10 @@
       <c r="L8" s="114"/>
       <c r="M8" s="114"/>
       <c r="N8" s="115"/>
-      <c r="P8" s="527" t="s">
+      <c r="P8" s="525" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="528"/>
+      <c r="Q8" s="526"/>
       <c r="S8" s="94"/>
     </row>
     <row r="9" spans="1:177" ht="14.25" customHeight="1">
@@ -26788,10 +26788,10 @@
         <v>127</v>
       </c>
       <c r="N9" s="116"/>
-      <c r="P9" s="529" t="s">
+      <c r="P9" s="527" t="s">
         <v>187</v>
       </c>
-      <c r="Q9" s="530"/>
+      <c r="Q9" s="528"/>
       <c r="S9" s="94"/>
     </row>
     <row r="10" spans="1:177">
@@ -27090,10 +27090,10 @@
     </row>
     <row r="19" spans="1:18" s="131" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="138"/>
-      <c r="C19" s="531" t="s">
+      <c r="C19" s="516" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="531"/>
+      <c r="D19" s="516"/>
       <c r="E19" s="159" t="s">
         <v>175</v>
       </c>
@@ -27128,108 +27128,108 @@
     </row>
     <row r="20" spans="1:18" s="131" customFormat="1" ht="12" customHeight="1">
       <c r="B20" s="140"/>
-      <c r="C20" s="535" t="s">
+      <c r="C20" s="521" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="536"/>
-      <c r="E20" s="516">
+      <c r="D20" s="522"/>
+      <c r="E20" s="514">
         <v>1</v>
       </c>
-      <c r="F20" s="516"/>
-      <c r="G20" s="516" t="s">
+      <c r="F20" s="514"/>
+      <c r="G20" s="514" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="516" t="s">
+      <c r="H20" s="514" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="516">
+      <c r="I20" s="514">
         <v>650</v>
       </c>
-      <c r="J20" s="516">
+      <c r="J20" s="514">
         <v>50</v>
       </c>
-      <c r="K20" s="526" t="s">
+      <c r="K20" s="529" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="516" t="s">
+      <c r="L20" s="514" t="s">
         <v>170</v>
       </c>
       <c r="M20" s="141"/>
       <c r="N20" s="141"/>
       <c r="O20" s="141"/>
-      <c r="P20" s="522"/>
-      <c r="Q20" s="513"/>
+      <c r="P20" s="536"/>
+      <c r="Q20" s="530"/>
     </row>
     <row r="21" spans="1:18" s="131" customFormat="1">
       <c r="B21" s="140"/>
-      <c r="C21" s="537"/>
-      <c r="D21" s="537"/>
-      <c r="E21" s="517"/>
-      <c r="F21" s="517"/>
-      <c r="G21" s="517"/>
-      <c r="H21" s="517"/>
-      <c r="I21" s="517"/>
-      <c r="J21" s="517"/>
-      <c r="K21" s="517"/>
-      <c r="L21" s="517"/>
+      <c r="C21" s="523"/>
+      <c r="D21" s="523"/>
+      <c r="E21" s="515"/>
+      <c r="F21" s="515"/>
+      <c r="G21" s="515"/>
+      <c r="H21" s="515"/>
+      <c r="I21" s="515"/>
+      <c r="J21" s="515"/>
+      <c r="K21" s="515"/>
+      <c r="L21" s="515"/>
       <c r="M21" s="142"/>
       <c r="N21" s="142"/>
       <c r="O21" s="142"/>
-      <c r="P21" s="523"/>
-      <c r="Q21" s="514"/>
+      <c r="P21" s="537"/>
+      <c r="Q21" s="531"/>
     </row>
     <row r="22" spans="1:18" s="131" customFormat="1">
       <c r="B22" s="140"/>
-      <c r="C22" s="537"/>
-      <c r="D22" s="537"/>
-      <c r="E22" s="517"/>
-      <c r="F22" s="517"/>
-      <c r="G22" s="517"/>
-      <c r="H22" s="517"/>
-      <c r="I22" s="517"/>
-      <c r="J22" s="517"/>
-      <c r="K22" s="517"/>
-      <c r="L22" s="517"/>
+      <c r="C22" s="523"/>
+      <c r="D22" s="523"/>
+      <c r="E22" s="515"/>
+      <c r="F22" s="515"/>
+      <c r="G22" s="515"/>
+      <c r="H22" s="515"/>
+      <c r="I22" s="515"/>
+      <c r="J22" s="515"/>
+      <c r="K22" s="515"/>
+      <c r="L22" s="515"/>
       <c r="M22" s="142"/>
       <c r="N22" s="142"/>
       <c r="O22" s="142"/>
-      <c r="P22" s="523"/>
-      <c r="Q22" s="514"/>
+      <c r="P22" s="537"/>
+      <c r="Q22" s="531"/>
     </row>
     <row r="23" spans="1:18" s="131" customFormat="1">
       <c r="B23" s="140"/>
-      <c r="C23" s="537"/>
-      <c r="D23" s="537"/>
-      <c r="E23" s="517"/>
-      <c r="F23" s="517"/>
-      <c r="G23" s="517"/>
-      <c r="H23" s="517"/>
-      <c r="I23" s="517"/>
-      <c r="J23" s="517"/>
-      <c r="K23" s="517"/>
-      <c r="L23" s="517"/>
+      <c r="C23" s="523"/>
+      <c r="D23" s="523"/>
+      <c r="E23" s="515"/>
+      <c r="F23" s="515"/>
+      <c r="G23" s="515"/>
+      <c r="H23" s="515"/>
+      <c r="I23" s="515"/>
+      <c r="J23" s="515"/>
+      <c r="K23" s="515"/>
+      <c r="L23" s="515"/>
       <c r="M23" s="142"/>
       <c r="N23" s="142"/>
       <c r="O23" s="142"/>
-      <c r="P23" s="523"/>
-      <c r="Q23" s="514"/>
+      <c r="P23" s="537"/>
+      <c r="Q23" s="531"/>
     </row>
     <row r="24" spans="1:18" s="131" customFormat="1" ht="49.5" customHeight="1">
       <c r="B24" s="143"/>
-      <c r="C24" s="538" t="s">
+      <c r="C24" s="524" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="538"/>
+      <c r="D24" s="524"/>
       <c r="E24" s="145">
         <v>2</v>
       </c>
       <c r="F24" s="145"/>
       <c r="G24" s="145"/>
-      <c r="H24" s="518"/>
-      <c r="I24" s="518"/>
-      <c r="J24" s="518"/>
-      <c r="K24" s="518"/>
-      <c r="L24" s="518"/>
+      <c r="H24" s="520"/>
+      <c r="I24" s="520"/>
+      <c r="J24" s="520"/>
+      <c r="K24" s="520"/>
+      <c r="L24" s="520"/>
       <c r="M24" s="133"/>
       <c r="N24" s="133"/>
       <c r="O24" s="133"/>
@@ -27275,10 +27275,10 @@
     </row>
     <row r="27" spans="1:18" s="142" customFormat="1" ht="12.75" customHeight="1">
       <c r="B27" s="138"/>
-      <c r="C27" s="531" t="s">
+      <c r="C27" s="516" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="531"/>
+      <c r="D27" s="516"/>
       <c r="E27" s="159" t="s">
         <v>175</v>
       </c>
@@ -27313,87 +27313,87 @@
     </row>
     <row r="28" spans="1:18" s="142" customFormat="1" ht="20.25" customHeight="1">
       <c r="B28" s="146"/>
-      <c r="C28" s="532" t="s">
+      <c r="C28" s="517" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="532"/>
-      <c r="E28" s="516">
+      <c r="D28" s="517"/>
+      <c r="E28" s="514">
         <v>1</v>
       </c>
-      <c r="F28" s="516"/>
-      <c r="G28" s="516"/>
-      <c r="H28" s="516" t="s">
+      <c r="F28" s="514"/>
+      <c r="G28" s="514"/>
+      <c r="H28" s="514" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="516">
+      <c r="I28" s="514">
         <v>450</v>
       </c>
-      <c r="J28" s="516">
+      <c r="J28" s="514">
         <v>50</v>
       </c>
-      <c r="K28" s="526" t="s">
+      <c r="K28" s="529" t="s">
         <v>180</v>
       </c>
       <c r="L28" s="122"/>
       <c r="M28" s="141"/>
       <c r="N28" s="141"/>
       <c r="O28" s="141"/>
-      <c r="P28" s="522"/>
-      <c r="Q28" s="513"/>
+      <c r="P28" s="536"/>
+      <c r="Q28" s="530"/>
     </row>
     <row r="29" spans="1:18" s="142" customFormat="1" ht="20.25" customHeight="1">
       <c r="B29" s="140"/>
-      <c r="C29" s="533"/>
-      <c r="D29" s="533"/>
-      <c r="E29" s="517"/>
-      <c r="F29" s="517"/>
-      <c r="G29" s="517"/>
-      <c r="H29" s="517"/>
-      <c r="I29" s="517"/>
-      <c r="J29" s="517"/>
-      <c r="K29" s="517"/>
+      <c r="C29" s="518"/>
+      <c r="D29" s="518"/>
+      <c r="E29" s="515"/>
+      <c r="F29" s="515"/>
+      <c r="G29" s="515"/>
+      <c r="H29" s="515"/>
+      <c r="I29" s="515"/>
+      <c r="J29" s="515"/>
+      <c r="K29" s="515"/>
       <c r="L29" s="123"/>
       <c r="M29" s="132"/>
       <c r="N29" s="132"/>
       <c r="O29" s="132"/>
-      <c r="P29" s="524"/>
-      <c r="Q29" s="514"/>
+      <c r="P29" s="538"/>
+      <c r="Q29" s="531"/>
     </row>
     <row r="30" spans="1:18" s="142" customFormat="1" ht="20.25" customHeight="1">
       <c r="B30" s="140"/>
-      <c r="C30" s="533"/>
-      <c r="D30" s="533"/>
-      <c r="E30" s="517"/>
-      <c r="F30" s="517"/>
-      <c r="G30" s="517"/>
-      <c r="H30" s="517"/>
-      <c r="I30" s="517"/>
-      <c r="J30" s="517"/>
-      <c r="K30" s="517"/>
+      <c r="C30" s="518"/>
+      <c r="D30" s="518"/>
+      <c r="E30" s="515"/>
+      <c r="F30" s="515"/>
+      <c r="G30" s="515"/>
+      <c r="H30" s="515"/>
+      <c r="I30" s="515"/>
+      <c r="J30" s="515"/>
+      <c r="K30" s="515"/>
       <c r="L30" s="123"/>
       <c r="M30" s="132"/>
       <c r="N30" s="132"/>
       <c r="O30" s="132"/>
-      <c r="P30" s="524"/>
-      <c r="Q30" s="514"/>
+      <c r="P30" s="538"/>
+      <c r="Q30" s="531"/>
     </row>
     <row r="31" spans="1:18" s="142" customFormat="1" ht="20.25" customHeight="1">
       <c r="B31" s="143"/>
-      <c r="C31" s="534"/>
-      <c r="D31" s="534"/>
-      <c r="E31" s="518"/>
-      <c r="F31" s="518"/>
-      <c r="G31" s="518"/>
-      <c r="H31" s="518"/>
-      <c r="I31" s="518"/>
-      <c r="J31" s="518"/>
-      <c r="K31" s="518"/>
+      <c r="C31" s="519"/>
+      <c r="D31" s="519"/>
+      <c r="E31" s="520"/>
+      <c r="F31" s="520"/>
+      <c r="G31" s="520"/>
+      <c r="H31" s="520"/>
+      <c r="I31" s="520"/>
+      <c r="J31" s="520"/>
+      <c r="K31" s="520"/>
       <c r="L31" s="134"/>
       <c r="M31" s="133"/>
       <c r="N31" s="133"/>
       <c r="O31" s="133"/>
-      <c r="P31" s="525"/>
-      <c r="Q31" s="515"/>
+      <c r="P31" s="539"/>
+      <c r="Q31" s="532"/>
     </row>
     <row r="32" spans="1:18" s="131" customFormat="1">
       <c r="G32" s="142"/>
@@ -27434,10 +27434,10 @@
     </row>
     <row r="34" spans="2:17" s="142" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="138"/>
-      <c r="C34" s="531" t="s">
+      <c r="C34" s="516" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="531"/>
+      <c r="D34" s="516"/>
       <c r="E34" s="159" t="s">
         <v>175</v>
       </c>
@@ -27472,89 +27472,89 @@
     </row>
     <row r="35" spans="2:17" s="142" customFormat="1" ht="18.75" customHeight="1">
       <c r="B35" s="146"/>
-      <c r="C35" s="532" t="s">
+      <c r="C35" s="517" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="532"/>
-      <c r="E35" s="516">
+      <c r="D35" s="517"/>
+      <c r="E35" s="514">
         <v>1</v>
       </c>
-      <c r="F35" s="516">
+      <c r="F35" s="514">
         <v>1</v>
       </c>
-      <c r="G35" s="516"/>
-      <c r="H35" s="516" t="s">
+      <c r="G35" s="514"/>
+      <c r="H35" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="516">
+      <c r="I35" s="514">
         <v>450</v>
       </c>
-      <c r="J35" s="516">
+      <c r="J35" s="514">
         <v>50</v>
       </c>
-      <c r="K35" s="519" t="s">
+      <c r="K35" s="533" t="s">
         <v>179</v>
       </c>
       <c r="L35" s="122"/>
       <c r="M35" s="141"/>
       <c r="N35" s="141"/>
       <c r="O35" s="141"/>
-      <c r="P35" s="522"/>
-      <c r="Q35" s="513"/>
+      <c r="P35" s="536"/>
+      <c r="Q35" s="530"/>
     </row>
     <row r="36" spans="2:17" s="142" customFormat="1" ht="18.75" customHeight="1">
       <c r="B36" s="140"/>
-      <c r="C36" s="533"/>
-      <c r="D36" s="533"/>
-      <c r="E36" s="517"/>
-      <c r="F36" s="517"/>
-      <c r="G36" s="517"/>
-      <c r="H36" s="517"/>
-      <c r="I36" s="517"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="520"/>
+      <c r="C36" s="518"/>
+      <c r="D36" s="518"/>
+      <c r="E36" s="515"/>
+      <c r="F36" s="515"/>
+      <c r="G36" s="515"/>
+      <c r="H36" s="515"/>
+      <c r="I36" s="515"/>
+      <c r="J36" s="515"/>
+      <c r="K36" s="534"/>
       <c r="L36" s="123"/>
       <c r="M36" s="132"/>
       <c r="N36" s="132"/>
       <c r="O36" s="132"/>
-      <c r="P36" s="524"/>
-      <c r="Q36" s="514"/>
+      <c r="P36" s="538"/>
+      <c r="Q36" s="531"/>
     </row>
     <row r="37" spans="2:17" s="142" customFormat="1" ht="18.75" customHeight="1">
       <c r="B37" s="140"/>
-      <c r="C37" s="533"/>
-      <c r="D37" s="533"/>
-      <c r="E37" s="517"/>
-      <c r="F37" s="517"/>
-      <c r="G37" s="517"/>
-      <c r="H37" s="517"/>
-      <c r="I37" s="517"/>
-      <c r="J37" s="517"/>
-      <c r="K37" s="520"/>
+      <c r="C37" s="518"/>
+      <c r="D37" s="518"/>
+      <c r="E37" s="515"/>
+      <c r="F37" s="515"/>
+      <c r="G37" s="515"/>
+      <c r="H37" s="515"/>
+      <c r="I37" s="515"/>
+      <c r="J37" s="515"/>
+      <c r="K37" s="534"/>
       <c r="L37" s="123"/>
       <c r="M37" s="132"/>
       <c r="N37" s="132"/>
       <c r="O37" s="132"/>
-      <c r="P37" s="524"/>
-      <c r="Q37" s="514"/>
+      <c r="P37" s="538"/>
+      <c r="Q37" s="531"/>
     </row>
     <row r="38" spans="2:17" s="142" customFormat="1" ht="18.75" customHeight="1">
       <c r="B38" s="143"/>
-      <c r="C38" s="534"/>
-      <c r="D38" s="534"/>
-      <c r="E38" s="518"/>
-      <c r="F38" s="518"/>
-      <c r="G38" s="518"/>
-      <c r="H38" s="518"/>
-      <c r="I38" s="518"/>
-      <c r="J38" s="518"/>
-      <c r="K38" s="521"/>
+      <c r="C38" s="519"/>
+      <c r="D38" s="519"/>
+      <c r="E38" s="520"/>
+      <c r="F38" s="520"/>
+      <c r="G38" s="520"/>
+      <c r="H38" s="520"/>
+      <c r="I38" s="520"/>
+      <c r="J38" s="520"/>
+      <c r="K38" s="535"/>
       <c r="L38" s="134"/>
       <c r="M38" s="133"/>
       <c r="N38" s="133"/>
       <c r="O38" s="133"/>
-      <c r="P38" s="525"/>
-      <c r="Q38" s="515"/>
+      <c r="P38" s="539"/>
+      <c r="Q38" s="532"/>
     </row>
     <row r="39" spans="2:17" ht="18.75" customHeight="1">
       <c r="D39" s="157" t="s">
@@ -27570,6 +27570,28 @@
     <row r="43" spans="2:17" s="131" customFormat="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="P35:P38"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C27:D27"/>
@@ -27586,28 +27608,6 @@
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="G35:G38"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="Q35:Q38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="P35:P38"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="K20:K24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27615,22 +27615,22 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="11314" r:id="rId4" name="TextBox15"/>
-    <control shapeId="11287" r:id="rId5" name="TextBox14"/>
-    <control shapeId="11286" r:id="rId6" name="TextBox13"/>
-    <control shapeId="11282" r:id="rId7" name="TextBox12"/>
-    <control shapeId="11281" r:id="rId8" name="TextBox11"/>
-    <control shapeId="11280" r:id="rId9" name="TextBox10"/>
-    <control shapeId="11279" r:id="rId10" name="TextBox9"/>
-    <control shapeId="11278" r:id="rId11" name="TextBox8"/>
-    <control shapeId="11276" r:id="rId12" name="TextBox7"/>
-    <control shapeId="11275" r:id="rId13" name="TextBox6"/>
-    <control shapeId="11274" r:id="rId14" name="TextBox5"/>
-    <control shapeId="11273" r:id="rId15" name="TextBox4"/>
-    <control shapeId="11272" r:id="rId16" name="TextBox3"/>
-    <control shapeId="11271" r:id="rId17" name="TextBox2"/>
-    <control shapeId="11270" r:id="rId18" name="TextBox1"/>
-    <control shapeId="11312" r:id="rId19" name="TextBox16"/>
+    <control shapeId="11312" r:id="rId4" name="TextBox16"/>
+    <control shapeId="11270" r:id="rId5" name="TextBox1"/>
+    <control shapeId="11271" r:id="rId6" name="TextBox2"/>
+    <control shapeId="11272" r:id="rId7" name="TextBox3"/>
+    <control shapeId="11273" r:id="rId8" name="TextBox4"/>
+    <control shapeId="11274" r:id="rId9" name="TextBox5"/>
+    <control shapeId="11275" r:id="rId10" name="TextBox6"/>
+    <control shapeId="11276" r:id="rId11" name="TextBox7"/>
+    <control shapeId="11278" r:id="rId12" name="TextBox8"/>
+    <control shapeId="11279" r:id="rId13" name="TextBox9"/>
+    <control shapeId="11280" r:id="rId14" name="TextBox10"/>
+    <control shapeId="11281" r:id="rId15" name="TextBox11"/>
+    <control shapeId="11282" r:id="rId16" name="TextBox12"/>
+    <control shapeId="11286" r:id="rId17" name="TextBox13"/>
+    <control shapeId="11287" r:id="rId18" name="TextBox14"/>
+    <control shapeId="11314" r:id="rId19" name="TextBox15"/>
   </controls>
 </worksheet>
 </file>
@@ -27661,10 +27661,10 @@
   <sheetData>
     <row r="2" spans="2:44" s="135" customFormat="1" ht="19.5" customHeight="1">
       <c r="B2" s="148"/>
-      <c r="C2" s="539" t="s">
+      <c r="C2" s="540" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="539"/>
+      <c r="D2" s="540"/>
       <c r="E2" s="147"/>
       <c r="F2" s="147"/>
       <c r="G2" s="147"/>
@@ -27763,13 +27763,13 @@
     </row>
     <row r="4" spans="2:44" ht="17.25" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="540" t="s">
+      <c r="C4" s="541" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="540"/>
-      <c r="E4" s="540"/>
-      <c r="F4" s="540"/>
-      <c r="G4" s="540"/>
+      <c r="D4" s="541"/>
+      <c r="E4" s="541"/>
+      <c r="F4" s="541"/>
+      <c r="G4" s="541"/>
       <c r="H4" s="153" t="s">
         <v>157</v>
       </c>
@@ -27803,13 +27803,13 @@
     </row>
     <row r="6" spans="2:44" ht="16.5" customHeight="1">
       <c r="B6" s="4"/>
-      <c r="C6" s="541" t="s">
+      <c r="C6" s="542" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="541"/>
-      <c r="E6" s="541"/>
-      <c r="F6" s="541"/>
-      <c r="G6" s="541"/>
+      <c r="D6" s="542"/>
+      <c r="E6" s="542"/>
+      <c r="F6" s="542"/>
+      <c r="G6" s="542"/>
       <c r="H6" s="153" t="s">
         <v>160</v>
       </c>
@@ -27862,7 +27862,7 @@
   <dimension ref="A2:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -28463,7 +28463,7 @@
       <c r="N17" s="468" t="s">
         <v>545</v>
       </c>
-      <c r="O17" s="553" t="s">
+      <c r="O17" s="489" t="s">
         <v>554</v>
       </c>
       <c r="P17" s="468" t="s">
@@ -28516,10 +28516,10 @@
     <row r="20" spans="1:23" s="367" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="359"/>
       <c r="B20" s="374"/>
-      <c r="C20" s="542" t="s">
+      <c r="C20" s="547" t="s">
         <v>495</v>
       </c>
-      <c r="D20" s="543"/>
+      <c r="D20" s="548"/>
       <c r="E20" s="286"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
@@ -28595,13 +28595,13 @@
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1">
       <c r="B22" s="167"/>
-      <c r="C22" s="544" t="s">
+      <c r="C22" s="549" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="544"/>
-      <c r="E22" s="544"/>
-      <c r="F22" s="544"/>
-      <c r="G22" s="544"/>
+      <c r="D22" s="549"/>
+      <c r="E22" s="549"/>
+      <c r="F22" s="549"/>
+      <c r="G22" s="549"/>
       <c r="H22" s="251" t="s">
         <v>371</v>
       </c>
@@ -28650,13 +28650,13 @@
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1">
       <c r="B23" s="167"/>
-      <c r="C23" s="546" t="s">
+      <c r="C23" s="551" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="546"/>
-      <c r="E23" s="546"/>
-      <c r="F23" s="546"/>
-      <c r="G23" s="546"/>
+      <c r="D23" s="551"/>
+      <c r="E23" s="551"/>
+      <c r="F23" s="551"/>
+      <c r="G23" s="551"/>
       <c r="H23" s="251" t="s">
         <v>333</v>
       </c>
@@ -28705,13 +28705,13 @@
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1">
       <c r="B24" s="167"/>
-      <c r="C24" s="545" t="s">
+      <c r="C24" s="550" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="546"/>
-      <c r="E24" s="546"/>
-      <c r="F24" s="546"/>
-      <c r="G24" s="546"/>
+      <c r="D24" s="551"/>
+      <c r="E24" s="551"/>
+      <c r="F24" s="551"/>
+      <c r="G24" s="551"/>
       <c r="H24" s="251" t="s">
         <v>351</v>
       </c>
@@ -28760,11 +28760,11 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="167"/>
-      <c r="C25" s="546"/>
-      <c r="D25" s="546"/>
-      <c r="E25" s="546"/>
-      <c r="F25" s="546"/>
-      <c r="G25" s="546"/>
+      <c r="C25" s="551"/>
+      <c r="D25" s="551"/>
+      <c r="E25" s="551"/>
+      <c r="F25" s="551"/>
+      <c r="G25" s="551"/>
       <c r="H25" s="251"/>
       <c r="I25" s="251"/>
       <c r="J25" s="385"/>
@@ -28853,7 +28853,7 @@
     </row>
     <row r="32" spans="1:23" ht="14.25">
       <c r="B32" s="381" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="2:19" ht="14.25">
@@ -28863,15 +28863,15 @@
     </row>
     <row r="34" spans="2:19" ht="14.25">
       <c r="B34" s="381" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="14.25">
       <c r="B35" s="382"/>
-      <c r="C35" s="547" t="s">
+      <c r="C35" s="552" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="548"/>
+      <c r="D35" s="553"/>
       <c r="E35" s="245"/>
       <c r="F35" s="245"/>
       <c r="G35" s="245"/>
@@ -28953,10 +28953,10 @@
     <row r="39" spans="2:19" ht="14.25">
       <c r="B39" s="167"/>
       <c r="C39" s="383"/>
-      <c r="D39" s="550" t="s">
+      <c r="D39" s="543" t="s">
         <v>519</v>
       </c>
-      <c r="E39" s="551"/>
+      <c r="E39" s="544"/>
       <c r="F39" s="466"/>
       <c r="G39" s="466"/>
       <c r="H39" s="466"/>
@@ -29017,13 +29017,13 @@
     <row r="41" spans="2:19" ht="17.25" customHeight="1">
       <c r="B41" s="167"/>
       <c r="C41" s="167"/>
-      <c r="D41" s="552" t="s">
+      <c r="D41" s="545" t="s">
         <v>308</v>
       </c>
-      <c r="E41" s="552"/>
-      <c r="F41" s="552"/>
-      <c r="G41" s="552"/>
-      <c r="H41" s="552"/>
+      <c r="E41" s="545"/>
+      <c r="F41" s="545"/>
+      <c r="G41" s="545"/>
+      <c r="H41" s="545"/>
       <c r="I41" s="170" t="s">
         <v>332</v>
       </c>
@@ -29061,13 +29061,13 @@
     <row r="42" spans="2:19" ht="17.25" customHeight="1">
       <c r="B42" s="167"/>
       <c r="C42" s="191"/>
-      <c r="D42" s="549" t="s">
+      <c r="D42" s="546" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="549"/>
-      <c r="F42" s="549"/>
-      <c r="G42" s="549"/>
-      <c r="H42" s="549"/>
+      <c r="E42" s="546"/>
+      <c r="F42" s="546"/>
+      <c r="G42" s="546"/>
+      <c r="H42" s="546"/>
       <c r="I42" s="192" t="s">
         <v>333</v>
       </c>
@@ -29193,19 +29193,19 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="26681" r:id="rId4" name="TextBox1"/>
-    <control shapeId="26680" r:id="rId5" name="TextBox2"/>
-    <control shapeId="26673" r:id="rId6" name="TextBox34"/>
-    <control shapeId="26672" r:id="rId7" name="TextBox33"/>
-    <control shapeId="26641" r:id="rId8" name="TextBox20"/>
-    <control shapeId="26640" r:id="rId9" name="TextBox18"/>
+    <control shapeId="26633" r:id="rId4" name="TextBox11"/>
+    <control shapeId="26634" r:id="rId5" name="TextBox12"/>
+    <control shapeId="26635" r:id="rId6" name="TextBox13"/>
+    <control shapeId="26636" r:id="rId7" name="TextBox14"/>
+    <control shapeId="26637" r:id="rId8" name="TextBox15"/>
+    <control shapeId="26638" r:id="rId9" name="TextBox16"/>
     <control shapeId="26639" r:id="rId10" name="TextBox17"/>
-    <control shapeId="26638" r:id="rId11" name="TextBox16"/>
-    <control shapeId="26637" r:id="rId12" name="TextBox15"/>
-    <control shapeId="26636" r:id="rId13" name="TextBox14"/>
-    <control shapeId="26635" r:id="rId14" name="TextBox13"/>
-    <control shapeId="26634" r:id="rId15" name="TextBox12"/>
-    <control shapeId="26633" r:id="rId16" name="TextBox11"/>
+    <control shapeId="26640" r:id="rId11" name="TextBox18"/>
+    <control shapeId="26641" r:id="rId12" name="TextBox20"/>
+    <control shapeId="26672" r:id="rId13" name="TextBox33"/>
+    <control shapeId="26673" r:id="rId14" name="TextBox34"/>
+    <control shapeId="26680" r:id="rId15" name="TextBox2"/>
+    <control shapeId="26681" r:id="rId16" name="TextBox1"/>
   </controls>
 </worksheet>
 </file>
@@ -29543,10 +29543,10 @@
         <v>298</v>
       </c>
       <c r="W6" s="348"/>
-      <c r="X6" s="497"/>
-      <c r="Y6" s="497"/>
-      <c r="Z6" s="497"/>
-      <c r="AA6" s="498"/>
+      <c r="X6" s="498"/>
+      <c r="Y6" s="498"/>
+      <c r="Z6" s="498"/>
+      <c r="AA6" s="499"/>
     </row>
     <row r="7" spans="1:180" ht="14.25">
       <c r="B7" s="167"/>
@@ -30346,22 +30346,22 @@
       <c r="T20" s="170"/>
     </row>
     <row r="21" spans="1:180" ht="14.25" customHeight="1">
-      <c r="B21" s="491" t="s">
+      <c r="B21" s="492" t="s">
         <v>419</v>
       </c>
       <c r="C21" s="428"/>
-      <c r="D21" s="494" t="s">
+      <c r="D21" s="495" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="494" t="s">
+      <c r="E21" s="495" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="494" t="s">
+      <c r="F21" s="495" t="s">
         <v>418</v>
       </c>
       <c r="G21" s="428"/>
       <c r="H21" s="428"/>
-      <c r="I21" s="494" t="s">
+      <c r="I21" s="495" t="s">
         <v>417</v>
       </c>
       <c r="J21" s="335" t="s">
@@ -30383,14 +30383,14 @@
       <c r="T21" s="170"/>
     </row>
     <row r="22" spans="1:180">
-      <c r="B22" s="492"/>
+      <c r="B22" s="493"/>
       <c r="C22" s="428"/>
-      <c r="D22" s="495"/>
-      <c r="E22" s="495"/>
-      <c r="F22" s="495"/>
+      <c r="D22" s="496"/>
+      <c r="E22" s="496"/>
+      <c r="F22" s="496"/>
       <c r="G22" s="428"/>
       <c r="H22" s="428"/>
-      <c r="I22" s="495"/>
+      <c r="I22" s="496"/>
       <c r="J22" s="335">
         <v>36</v>
       </c>
@@ -30410,14 +30410,14 @@
       <c r="T22" s="170"/>
     </row>
     <row r="23" spans="1:180">
-      <c r="B23" s="493"/>
+      <c r="B23" s="494"/>
       <c r="C23" s="429"/>
-      <c r="D23" s="496"/>
-      <c r="E23" s="496"/>
-      <c r="F23" s="496"/>
+      <c r="D23" s="497"/>
+      <c r="E23" s="497"/>
+      <c r="F23" s="497"/>
       <c r="G23" s="429"/>
       <c r="H23" s="429"/>
-      <c r="I23" s="496"/>
+      <c r="I23" s="497"/>
       <c r="J23" s="338">
         <v>6</v>
       </c>
@@ -30700,10 +30700,10 @@
       <c r="D2" s="292" t="s">
         <v>470</v>
       </c>
-      <c r="E2" s="499" t="s">
+      <c r="E2" s="500" t="s">
         <v>471</v>
       </c>
-      <c r="F2" s="500"/>
+      <c r="F2" s="501"/>
     </row>
     <row r="3" spans="1:20" ht="9" customHeight="1">
       <c r="B3" s="226"/>
@@ -31930,10 +31930,10 @@
     </row>
     <row r="54" spans="1:20" ht="18.75" customHeight="1">
       <c r="B54" s="226"/>
-      <c r="C54" s="501" t="s">
+      <c r="C54" s="502" t="s">
         <v>468</v>
       </c>
-      <c r="D54" s="502"/>
+      <c r="D54" s="503"/>
       <c r="E54" s="283"/>
       <c r="F54" s="251"/>
       <c r="G54" s="251"/>
@@ -32035,22 +32035,22 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="23644" r:id="rId4" name="ComboBox2"/>
-    <control shapeId="23643" r:id="rId5" name="ComboBox1"/>
-    <control shapeId="23642" r:id="rId6" name="OptionButton4"/>
-    <control shapeId="23641" r:id="rId7" name="OptionButton3"/>
-    <control shapeId="23640" r:id="rId8" name="CheckBox6"/>
-    <control shapeId="23639" r:id="rId9" name="CheckBox5"/>
-    <control shapeId="23638" r:id="rId10" name="TextBox2"/>
-    <control shapeId="23637" r:id="rId11" name="TextBox1"/>
-    <control shapeId="23636" r:id="rId12" name="CheckBox2"/>
-    <control shapeId="23635" r:id="rId13" name="CheckBox1"/>
-    <control shapeId="23565" r:id="rId14" name="TextBox4"/>
-    <control shapeId="23564" r:id="rId15" name="TextBox3"/>
-    <control shapeId="23563" r:id="rId16" name="CheckBox4"/>
-    <control shapeId="23562" r:id="rId17" name="CheckBox3"/>
-    <control shapeId="23578" r:id="rId18" name="OptionButton1"/>
-    <control shapeId="23579" r:id="rId19" name="OptionButton2"/>
+    <control shapeId="23579" r:id="rId4" name="OptionButton2"/>
+    <control shapeId="23578" r:id="rId5" name="OptionButton1"/>
+    <control shapeId="23562" r:id="rId6" name="CheckBox3"/>
+    <control shapeId="23563" r:id="rId7" name="CheckBox4"/>
+    <control shapeId="23564" r:id="rId8" name="TextBox3"/>
+    <control shapeId="23565" r:id="rId9" name="TextBox4"/>
+    <control shapeId="23635" r:id="rId10" name="CheckBox1"/>
+    <control shapeId="23636" r:id="rId11" name="CheckBox2"/>
+    <control shapeId="23637" r:id="rId12" name="TextBox1"/>
+    <control shapeId="23638" r:id="rId13" name="TextBox2"/>
+    <control shapeId="23639" r:id="rId14" name="CheckBox5"/>
+    <control shapeId="23640" r:id="rId15" name="CheckBox6"/>
+    <control shapeId="23641" r:id="rId16" name="OptionButton3"/>
+    <control shapeId="23642" r:id="rId17" name="OptionButton4"/>
+    <control shapeId="23643" r:id="rId18" name="ComboBox1"/>
+    <control shapeId="23644" r:id="rId19" name="ComboBox2"/>
   </controls>
 </worksheet>
 </file>
@@ -32116,13 +32116,13 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="503" t="s">
+      <c r="E5" s="504" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="503"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="504"/>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
@@ -32137,11 +32137,11 @@
       <c r="D6" s="19">
         <v>110030010</v>
       </c>
-      <c r="E6" s="504"/>
-      <c r="F6" s="504"/>
-      <c r="G6" s="504"/>
-      <c r="H6" s="504"/>
-      <c r="I6" s="504"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="505"/>
+      <c r="G6" s="505"/>
+      <c r="H6" s="505"/>
+      <c r="I6" s="505"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -32301,11 +32301,11 @@
       <c r="D14" s="9">
         <v>110030010</v>
       </c>
-      <c r="E14" s="505"/>
-      <c r="F14" s="505"/>
-      <c r="G14" s="505"/>
-      <c r="H14" s="505"/>
-      <c r="I14" s="505"/>
+      <c r="E14" s="506"/>
+      <c r="F14" s="506"/>
+      <c r="G14" s="506"/>
+      <c r="H14" s="506"/>
+      <c r="I14" s="506"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -32321,11 +32321,11 @@
       <c r="D15" s="19">
         <v>110030010</v>
       </c>
-      <c r="E15" s="504"/>
-      <c r="F15" s="504"/>
-      <c r="G15" s="504"/>
-      <c r="H15" s="504"/>
-      <c r="I15" s="504"/>
+      <c r="E15" s="505"/>
+      <c r="F15" s="505"/>
+      <c r="G15" s="505"/>
+      <c r="H15" s="505"/>
+      <c r="I15" s="505"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -32350,17 +32350,17 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="3107" r:id="rId4" name="CommandButton1"/>
-    <control shapeId="3095" r:id="rId5" name="CheckBox4"/>
-    <control shapeId="3096" r:id="rId6" name="CheckBox5"/>
-    <control shapeId="3099" r:id="rId7" name="TextBox1"/>
-    <control shapeId="3100" r:id="rId8" name="TextBox2"/>
+    <control shapeId="3106" r:id="rId4" name="TextBox8"/>
+    <control shapeId="3105" r:id="rId5" name="TextBox5"/>
+    <control shapeId="3104" r:id="rId6" name="TextBox7"/>
+    <control shapeId="3103" r:id="rId7" name="TextBox6"/>
+    <control shapeId="3102" r:id="rId8" name="TextBox4"/>
     <control shapeId="3101" r:id="rId9" name="TextBox3"/>
-    <control shapeId="3102" r:id="rId10" name="TextBox4"/>
-    <control shapeId="3103" r:id="rId11" name="TextBox6"/>
-    <control shapeId="3104" r:id="rId12" name="TextBox7"/>
-    <control shapeId="3105" r:id="rId13" name="TextBox5"/>
-    <control shapeId="3106" r:id="rId14" name="TextBox8"/>
+    <control shapeId="3100" r:id="rId10" name="TextBox2"/>
+    <control shapeId="3099" r:id="rId11" name="TextBox1"/>
+    <control shapeId="3096" r:id="rId12" name="CheckBox5"/>
+    <control shapeId="3095" r:id="rId13" name="CheckBox4"/>
+    <control shapeId="3107" r:id="rId14" name="CommandButton1"/>
   </controls>
 </worksheet>
 </file>
@@ -32868,30 +32868,30 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="6174" r:id="rId4" name="OptionButton24"/>
-    <control shapeId="6173" r:id="rId5" name="OptionButton23"/>
-    <control shapeId="6172" r:id="rId6" name="OptionButton22"/>
-    <control shapeId="6171" r:id="rId7" name="OptionButton21"/>
-    <control shapeId="6170" r:id="rId8" name="OptionButton20"/>
-    <control shapeId="6169" r:id="rId9" name="OptionButton19"/>
-    <control shapeId="6168" r:id="rId10" name="OptionButton18"/>
-    <control shapeId="6167" r:id="rId11" name="OptionButton17"/>
-    <control shapeId="6166" r:id="rId12" name="OptionButton16"/>
-    <control shapeId="6165" r:id="rId13" name="OptionButton15"/>
-    <control shapeId="6164" r:id="rId14" name="OptionButton14"/>
-    <control shapeId="6163" r:id="rId15" name="OptionButton13"/>
-    <control shapeId="6162" r:id="rId16" name="OptionButton12"/>
-    <control shapeId="6161" r:id="rId17" name="OptionButton11"/>
-    <control shapeId="6160" r:id="rId18" name="OptionButton10"/>
-    <control shapeId="6159" r:id="rId19" name="OptionButton9"/>
-    <control shapeId="6158" r:id="rId20" name="OptionButton8"/>
-    <control shapeId="6157" r:id="rId21" name="OptionButton7"/>
-    <control shapeId="6156" r:id="rId22" name="OptionButton6"/>
-    <control shapeId="6155" r:id="rId23" name="OptionButton5"/>
-    <control shapeId="6154" r:id="rId24" name="OptionButton4"/>
-    <control shapeId="6153" r:id="rId25" name="OptionButton3"/>
-    <control shapeId="6152" r:id="rId26" name="OptionButton2"/>
-    <control shapeId="6151" r:id="rId27" name="OptionButton1"/>
+    <control shapeId="6151" r:id="rId4" name="OptionButton1"/>
+    <control shapeId="6152" r:id="rId5" name="OptionButton2"/>
+    <control shapeId="6153" r:id="rId6" name="OptionButton3"/>
+    <control shapeId="6154" r:id="rId7" name="OptionButton4"/>
+    <control shapeId="6155" r:id="rId8" name="OptionButton5"/>
+    <control shapeId="6156" r:id="rId9" name="OptionButton6"/>
+    <control shapeId="6157" r:id="rId10" name="OptionButton7"/>
+    <control shapeId="6158" r:id="rId11" name="OptionButton8"/>
+    <control shapeId="6159" r:id="rId12" name="OptionButton9"/>
+    <control shapeId="6160" r:id="rId13" name="OptionButton10"/>
+    <control shapeId="6161" r:id="rId14" name="OptionButton11"/>
+    <control shapeId="6162" r:id="rId15" name="OptionButton12"/>
+    <control shapeId="6163" r:id="rId16" name="OptionButton13"/>
+    <control shapeId="6164" r:id="rId17" name="OptionButton14"/>
+    <control shapeId="6165" r:id="rId18" name="OptionButton15"/>
+    <control shapeId="6166" r:id="rId19" name="OptionButton16"/>
+    <control shapeId="6167" r:id="rId20" name="OptionButton17"/>
+    <control shapeId="6168" r:id="rId21" name="OptionButton18"/>
+    <control shapeId="6169" r:id="rId22" name="OptionButton19"/>
+    <control shapeId="6170" r:id="rId23" name="OptionButton20"/>
+    <control shapeId="6171" r:id="rId24" name="OptionButton21"/>
+    <control shapeId="6172" r:id="rId25" name="OptionButton22"/>
+    <control shapeId="6173" r:id="rId26" name="OptionButton23"/>
+    <control shapeId="6174" r:id="rId27" name="OptionButton24"/>
   </controls>
 </worksheet>
 </file>
@@ -33027,17 +33027,17 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="7188" r:id="rId4" name="OptionButton11"/>
-    <control shapeId="7187" r:id="rId5" name="OptionButton10"/>
-    <control shapeId="7186" r:id="rId6" name="OptionButton9"/>
-    <control shapeId="7185" r:id="rId7" name="OptionButton8"/>
-    <control shapeId="7184" r:id="rId8" name="OptionButton7"/>
+    <control shapeId="7177" r:id="rId4" name="OptionButton1"/>
+    <control shapeId="7178" r:id="rId5" name="OptionButton2"/>
+    <control shapeId="7179" r:id="rId6" name="OptionButton3"/>
+    <control shapeId="7181" r:id="rId7" name="OptionButton4"/>
+    <control shapeId="7182" r:id="rId8" name="OptionButton5"/>
     <control shapeId="7183" r:id="rId9" name="OptionButton6"/>
-    <control shapeId="7182" r:id="rId10" name="OptionButton5"/>
-    <control shapeId="7181" r:id="rId11" name="OptionButton4"/>
-    <control shapeId="7179" r:id="rId12" name="OptionButton3"/>
-    <control shapeId="7178" r:id="rId13" name="OptionButton2"/>
-    <control shapeId="7177" r:id="rId14" name="OptionButton1"/>
+    <control shapeId="7184" r:id="rId10" name="OptionButton7"/>
+    <control shapeId="7185" r:id="rId11" name="OptionButton8"/>
+    <control shapeId="7186" r:id="rId12" name="OptionButton9"/>
+    <control shapeId="7187" r:id="rId13" name="OptionButton10"/>
+    <control shapeId="7188" r:id="rId14" name="OptionButton11"/>
   </controls>
 </worksheet>
 </file>
@@ -33199,16 +33199,16 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <controls>
-    <control shapeId="8228" r:id="rId3" name="OptionButton10"/>
-    <control shapeId="8227" r:id="rId4" name="OptionButton9"/>
-    <control shapeId="8226" r:id="rId5" name="OptionButton8"/>
-    <control shapeId="8225" r:id="rId6" name="OptionButton7"/>
-    <control shapeId="8224" r:id="rId7" name="OptionButton6"/>
-    <control shapeId="8223" r:id="rId8" name="OptionButton5"/>
-    <control shapeId="8222" r:id="rId9" name="OptionButton4"/>
-    <control shapeId="8221" r:id="rId10" name="OptionButton3"/>
-    <control shapeId="8220" r:id="rId11" name="OptionButton2"/>
-    <control shapeId="8219" r:id="rId12" name="OptionButton1"/>
+    <control shapeId="8219" r:id="rId3" name="OptionButton1"/>
+    <control shapeId="8220" r:id="rId4" name="OptionButton2"/>
+    <control shapeId="8221" r:id="rId5" name="OptionButton3"/>
+    <control shapeId="8222" r:id="rId6" name="OptionButton4"/>
+    <control shapeId="8223" r:id="rId7" name="OptionButton5"/>
+    <control shapeId="8224" r:id="rId8" name="OptionButton6"/>
+    <control shapeId="8225" r:id="rId9" name="OptionButton7"/>
+    <control shapeId="8226" r:id="rId10" name="OptionButton8"/>
+    <control shapeId="8227" r:id="rId11" name="OptionButton9"/>
+    <control shapeId="8228" r:id="rId12" name="OptionButton10"/>
   </controls>
 </worksheet>
 </file>
